--- a/data/trans_orig/P36B02_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>659243</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>645982</v>
+        <v>647085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>668710</v>
+        <v>669334</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9499007930324775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.93079316132086</v>
+        <v>0.9323825772089551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9635426075857597</v>
+        <v>0.9644421630012495</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>663</v>
@@ -765,19 +765,19 @@
         <v>656798</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>645452</v>
+        <v>644822</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>666187</v>
+        <v>666815</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9541608459244403</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.937678089845421</v>
+        <v>0.9367630485043529</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9678006854735502</v>
+        <v>0.9687132874817161</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1311</v>
@@ -786,19 +786,19 @@
         <v>1316040</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1298992</v>
+        <v>1300915</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1330968</v>
+        <v>1331309</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9520220965273912</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9396893167640338</v>
+        <v>0.9410806038052103</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9628206082462234</v>
+        <v>0.9630678126984392</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>34769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25302</v>
+        <v>24678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48030</v>
+        <v>46927</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05009920696752249</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0364573924142404</v>
+        <v>0.03555783699875044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06920683867914022</v>
+        <v>0.06761742279104493</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -836,19 +836,19 @@
         <v>31553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22164</v>
+        <v>21536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42899</v>
+        <v>43529</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04583915407555968</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03219931452644973</v>
+        <v>0.03128671251828382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06232191015457848</v>
+        <v>0.06323695149564712</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -857,19 +857,19 @@
         <v>66323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51395</v>
+        <v>51054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>83371</v>
+        <v>81448</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04797790347260875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03717939175377669</v>
+        <v>0.03693218730156088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06031068323596621</v>
+        <v>0.0589193961947898</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>884699</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>865383</v>
+        <v>867006</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>901487</v>
+        <v>903132</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9198364783624432</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8997536900466411</v>
+        <v>0.9014411299787336</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.937291941649197</v>
+        <v>0.9390023096801234</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>848</v>
@@ -982,19 +982,19 @@
         <v>903458</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>885651</v>
+        <v>885137</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>919000</v>
+        <v>918548</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9329454361145325</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9145571539943765</v>
+        <v>0.914026266157145</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9489943989099013</v>
+        <v>0.9485285349879485</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1672</v>
@@ -1003,19 +1003,19 @@
         <v>1788157</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1763292</v>
+        <v>1762706</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1810403</v>
+        <v>1808388</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9264133456858487</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9135315693723264</v>
+        <v>0.9132278702136327</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9379389021516835</v>
+        <v>0.936894835680754</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>77101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>60313</v>
+        <v>58668</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96417</v>
+        <v>94794</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08016352163755684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06270805835080299</v>
+        <v>0.0609976903198766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1002463099533589</v>
+        <v>0.09855887002126637</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>60</v>
@@ -1053,19 +1053,19 @@
         <v>64935</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49393</v>
+        <v>49845</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82742</v>
+        <v>83256</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06705456388546747</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05100560109009861</v>
+        <v>0.0514714650120515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08544284600562321</v>
+        <v>0.08597373384285498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>132</v>
@@ -1074,19 +1074,19 @@
         <v>142036</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>119790</v>
+        <v>121805</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>166901</v>
+        <v>167487</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07358665431415137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06206109784831648</v>
+        <v>0.063105164319246</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08646843062767338</v>
+        <v>0.08677212978636742</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>627461</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>611939</v>
+        <v>612057</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>640328</v>
+        <v>640322</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9247642155702076</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9018883244213222</v>
+        <v>0.9020612800024841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9437276820826589</v>
+        <v>0.9437187688559487</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>651</v>
@@ -1199,19 +1199,19 @@
         <v>641023</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>627607</v>
+        <v>625865</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>651584</v>
+        <v>651615</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9389402581677251</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9192897373529473</v>
+        <v>0.9167373780103081</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9544094829206695</v>
+        <v>0.9544550293281207</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1245</v>
@@ -1220,19 +1220,19 @@
         <v>1268484</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1249141</v>
+        <v>1249131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1285399</v>
+        <v>1285857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9318741043548094</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9176640485866312</v>
+        <v>0.9176567731783328</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9443003443104983</v>
+        <v>0.9446368284427182</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>51048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38181</v>
+        <v>38187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66570</v>
+        <v>66452</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07523578442979234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05627231791734113</v>
+        <v>0.05628123114405115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09811167557867806</v>
+        <v>0.0979387199975157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -1270,19 +1270,19 @@
         <v>41686</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31125</v>
+        <v>31094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55102</v>
+        <v>56844</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06105974183227493</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04559051707933047</v>
+        <v>0.04554497067187947</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08071026264705264</v>
+        <v>0.08326262198969232</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>91</v>
@@ -1291,19 +1291,19 @@
         <v>92734</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>75819</v>
+        <v>75361</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>112077</v>
+        <v>112087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0681258956451906</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0556996556895016</v>
+        <v>0.05536317155728177</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08233595141336841</v>
+        <v>0.0823432268216671</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>871139</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>852831</v>
+        <v>853583</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>885225</v>
+        <v>885177</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9254245447200994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9059750106415784</v>
+        <v>0.9067746036669686</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9403880568882392</v>
+        <v>0.9403372094438242</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>946</v>
@@ -1416,19 +1416,19 @@
         <v>984658</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>969784</v>
+        <v>968988</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>997000</v>
+        <v>998109</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9480516189750654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9337311073886275</v>
+        <v>0.9329640769510085</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9599348455282626</v>
+        <v>0.9610025283794793</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1866</v>
@@ -1437,19 +1437,19 @@
         <v>1855797</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1830957</v>
+        <v>1831374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1875212</v>
+        <v>1875173</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9372938975681205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9247479255370636</v>
+        <v>0.9249588006849728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9470999114543683</v>
+        <v>0.9470799078854675</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>70201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56115</v>
+        <v>56163</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>88509</v>
+        <v>87757</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07457545527990056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05961194311176081</v>
+        <v>0.05966279055617581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09402498935842164</v>
+        <v>0.0932253963330314</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -1487,19 +1487,19 @@
         <v>53954</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41612</v>
+        <v>40503</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68828</v>
+        <v>69624</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05194838102493458</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04006515447173742</v>
+        <v>0.03899747162052079</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06626889261137288</v>
+        <v>0.06703592304899154</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>124</v>
@@ -1508,19 +1508,19 @@
         <v>124155</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>104740</v>
+        <v>104779</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>148995</v>
+        <v>148578</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06270610243187945</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05290008854563161</v>
+        <v>0.05292009211453246</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07525207446293586</v>
+        <v>0.0750411993150272</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>3042541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3011617</v>
+        <v>3008336</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3072603</v>
+        <v>3066900</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9288327637095578</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9193922347015256</v>
+        <v>0.9183905642118716</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9380101242385006</v>
+        <v>0.9362691151065636</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3108</v>
@@ -1633,19 +1633,19 @@
         <v>3185936</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3157927</v>
+        <v>3157139</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3211411</v>
+        <v>3212934</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9431245864588624</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9348332449852381</v>
+        <v>0.9345997695830968</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9506658952196159</v>
+        <v>0.9511167037688082</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6094</v>
@@ -1654,19 +1654,19 @@
         <v>6228477</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6188258</v>
+        <v>6189986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6268395</v>
+        <v>6270333</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9360886533320603</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9300440490684013</v>
+        <v>0.9303036556572525</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9420879043686058</v>
+        <v>0.9423792449104453</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>233120</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203058</v>
+        <v>208761</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>264044</v>
+        <v>267325</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07116723629044223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06198987576149954</v>
+        <v>0.06373088489343658</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08060776529847447</v>
+        <v>0.08160943578812875</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>188</v>
@@ -1704,19 +1704,19 @@
         <v>192129</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166654</v>
+        <v>165131</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>220138</v>
+        <v>220926</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05687541354113756</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04933410478038424</v>
+        <v>0.04888329623119179</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06516675501476202</v>
+        <v>0.06540023041690336</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>415</v>
@@ -1725,19 +1725,19 @@
         <v>425249</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385331</v>
+        <v>383393</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>465468</v>
+        <v>463740</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06391134666793978</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05791209563139429</v>
+        <v>0.05762075508955462</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06995595093159868</v>
+        <v>0.06969634434274773</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>668279</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>654273</v>
+        <v>654239</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>679256</v>
+        <v>679351</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9499760037403653</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9300660897759041</v>
+        <v>0.930018313266168</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9655802705793932</v>
+        <v>0.9657160997905679</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>622</v>
@@ -2090,19 +2090,19 @@
         <v>666627</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>653483</v>
+        <v>654101</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>676792</v>
+        <v>676436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9563549711273652</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9374975177756302</v>
+        <v>0.9383839742035017</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9709369187041129</v>
+        <v>0.9704268699708639</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1263</v>
@@ -2111,19 +2111,19 @@
         <v>1334906</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1318108</v>
+        <v>1315955</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1351433</v>
+        <v>1350342</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9531508691168148</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9411567879878278</v>
+        <v>0.9396193371786113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9649512417115095</v>
+        <v>0.964172505785589</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>35190</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24213</v>
+        <v>24118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49196</v>
+        <v>49230</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05002399625963473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03441972942060671</v>
+        <v>0.03428390020943212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06993391022409549</v>
+        <v>0.06998168673383207</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -2161,19 +2161,19 @@
         <v>30423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20258</v>
+        <v>20614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43567</v>
+        <v>42949</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04364502887263472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02906308129588706</v>
+        <v>0.02957313002913605</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06250248222436977</v>
+        <v>0.06161602579649779</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -2182,19 +2182,19 @@
         <v>65613</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49086</v>
+        <v>50177</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82411</v>
+        <v>84564</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04684913088318519</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03504875828849049</v>
+        <v>0.03582749421441103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05884321201217222</v>
+        <v>0.06038066282138855</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>963698</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>947971</v>
+        <v>947014</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>977999</v>
+        <v>978313</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9467072447813705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.931257231091723</v>
+        <v>0.9303173002270422</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9607565391888442</v>
+        <v>0.9610643939266421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>888</v>
@@ -2307,19 +2307,19 @@
         <v>975919</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>960432</v>
+        <v>958225</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>989878</v>
+        <v>988730</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.946385659935277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9313678138781344</v>
+        <v>0.9292271830146273</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9599229193905454</v>
+        <v>0.9588094637552125</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1776</v>
@@ -2328,19 +2328,19 @@
         <v>1939616</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1916548</v>
+        <v>1917661</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1960628</v>
+        <v>1958026</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9465454119992768</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9352879384999084</v>
+        <v>0.9358310040050299</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9567991552028838</v>
+        <v>0.9555293081300343</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>54249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39948</v>
+        <v>39634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69976</v>
+        <v>70933</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05329275521862953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03924346081115584</v>
+        <v>0.03893560607335796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06874276890827696</v>
+        <v>0.06968269977295821</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -2378,19 +2378,19 @@
         <v>55287</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41328</v>
+        <v>42476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70774</v>
+        <v>72981</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05361434006472298</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04007708060945458</v>
+        <v>0.04119053624478752</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06863218612186561</v>
+        <v>0.07077281698537274</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>99</v>
@@ -2399,19 +2399,19 @@
         <v>109537</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>88525</v>
+        <v>91127</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>132605</v>
+        <v>131492</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05345458800072318</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04320084479711615</v>
+        <v>0.04447069186996555</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06471206150009151</v>
+        <v>0.06416899599497013</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>679347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>657811</v>
+        <v>657517</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>694306</v>
+        <v>695148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8966825484277747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8682565655849299</v>
+        <v>0.8678678863294345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9164270656183264</v>
+        <v>0.9175375804629171</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>653</v>
@@ -2524,19 +2524,19 @@
         <v>718686</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>700705</v>
+        <v>701689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>731647</v>
+        <v>731747</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.928348263683867</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9051213714526682</v>
+        <v>0.9063923776227704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9450900150553903</v>
+        <v>0.9452184948591265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1269</v>
@@ -2545,19 +2545,19 @@
         <v>1398034</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1374230</v>
+        <v>1372783</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1420379</v>
+        <v>1419844</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9126862922560852</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8971465625882861</v>
+        <v>0.8962017202190227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9272743329641646</v>
+        <v>0.9269245651782033</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>78276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63317</v>
+        <v>62475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>99812</v>
+        <v>100106</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1033174515722253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08357293438167358</v>
+        <v>0.08246241953708246</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1317434344150701</v>
+        <v>0.1321321136705652</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -2595,19 +2595,19 @@
         <v>55470</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42509</v>
+        <v>42409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73451</v>
+        <v>72467</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07165173631613299</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05490998494460982</v>
+        <v>0.05478150514087277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09487862854733184</v>
+        <v>0.09360762237722914</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>122</v>
@@ -2616,19 +2616,19 @@
         <v>133745</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111400</v>
+        <v>111935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>157549</v>
+        <v>158996</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08731370774391475</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07272566703583538</v>
+        <v>0.07307543482179675</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1028534374117139</v>
+        <v>0.1037982797809773</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>885611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>868491</v>
+        <v>867995</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>900127</v>
+        <v>900628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9353473305304028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9172655981383134</v>
+        <v>0.9167414730449717</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.950678028151932</v>
+        <v>0.9512071947430784</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>939</v>
@@ -2741,19 +2741,19 @@
         <v>983788</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>965591</v>
+        <v>966140</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>998208</v>
+        <v>998715</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9369642078105868</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9196331485598086</v>
+        <v>0.9201559960787806</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9506981667109122</v>
+        <v>0.9511804704609668</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1792</v>
@@ -2762,19 +2762,19 @@
         <v>1869398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1842974</v>
+        <v>1847506</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1889666</v>
+        <v>1891835</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9361975302805481</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.922964296555396</v>
+        <v>0.9252336077778088</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9463474973155291</v>
+        <v>0.947433910772294</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>61215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46699</v>
+        <v>46198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78335</v>
+        <v>78831</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06465266946959729</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04932197184806799</v>
+        <v>0.04879280525692155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08273440186168672</v>
+        <v>0.08325852695502828</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -2812,19 +2812,19 @@
         <v>66186</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51766</v>
+        <v>51259</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84383</v>
+        <v>83834</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0630357921894132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04930183328908768</v>
+        <v>0.04881952953903321</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08036685144019143</v>
+        <v>0.0798440039212194</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>118</v>
@@ -2833,19 +2833,19 @@
         <v>127401</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>107133</v>
+        <v>104964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>153825</v>
+        <v>149293</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06380246971945194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05365250268447089</v>
+        <v>0.05256608922770593</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07703570344460416</v>
+        <v>0.07476639222219113</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>3196935</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3165544</v>
+        <v>3163118</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3228864</v>
+        <v>3223465</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9331759871575933</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9240131857381787</v>
+        <v>0.923304948838276</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9424960034336447</v>
+        <v>0.9409200994019693</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3102</v>
@@ -2958,19 +2958,19 @@
         <v>3345019</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3313366</v>
+        <v>3314291</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3371733</v>
+        <v>3370771</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9416263433026405</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9327160412204542</v>
+        <v>0.9329762086041228</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9491461774348536</v>
+        <v>0.9488756013443324</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6100</v>
@@ -2979,19 +2979,19 @@
         <v>6541954</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6498343</v>
+        <v>6495522</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6584508</v>
+        <v>6579492</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9374777702131148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.931228176628615</v>
+        <v>0.9308239186155596</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9435758011996198</v>
+        <v>0.9428569902130046</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>228930</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197001</v>
+        <v>202400</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>260321</v>
+        <v>262747</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06682401284240674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05750399656635533</v>
+        <v>0.05907990059803066</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07598681426182141</v>
+        <v>0.07669505116172394</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -3029,19 +3029,19 @@
         <v>207366</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180652</v>
+        <v>181614</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>239019</v>
+        <v>238094</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05837365669735946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0508538225651461</v>
+        <v>0.05112439865566762</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06728395877954582</v>
+        <v>0.06702379139587707</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>400</v>
@@ -3050,19 +3050,19 @@
         <v>436296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>393742</v>
+        <v>398758</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>479907</v>
+        <v>482728</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06252222978688519</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05642419880037993</v>
+        <v>0.05714300978699486</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0687718233713849</v>
+        <v>0.06917608138444031</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>624918</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>609593</v>
+        <v>610508</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>637677</v>
+        <v>637814</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9273050654919819</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9045645364567898</v>
+        <v>0.9059221038741289</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9462380385533841</v>
+        <v>0.9464403615325998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>634</v>
@@ -3415,19 +3415,19 @@
         <v>641197</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>629347</v>
+        <v>629000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>650999</v>
+        <v>651062</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.955606562560785</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9379460500433475</v>
+        <v>0.9374297767671994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9702158937043646</v>
+        <v>0.9703090813780214</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1239</v>
@@ -3436,19 +3436,19 @@
         <v>1266115</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1246476</v>
+        <v>1246570</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1283360</v>
+        <v>1282036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9414250503722</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9268226637768103</v>
+        <v>0.9268924661420855</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9542474573002232</v>
+        <v>0.9532635314304186</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>48990</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36231</v>
+        <v>36094</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64315</v>
+        <v>63400</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07269493450801816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.053761961446616</v>
+        <v>0.05355963846740004</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09543546354321054</v>
+        <v>0.09407789612587117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -3486,19 +3486,19 @@
         <v>29787</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19985</v>
+        <v>19922</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41637</v>
+        <v>41984</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04439343743921495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02978410629563544</v>
+        <v>0.02969091862197868</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06205394995665219</v>
+        <v>0.06257022323280095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -3507,19 +3507,19 @@
         <v>78777</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61532</v>
+        <v>62856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98416</v>
+        <v>98322</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05857494962779995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04575254269977684</v>
+        <v>0.04673646856958123</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07317733622318971</v>
+        <v>0.07310753385791433</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>934288</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>913859</v>
+        <v>914792</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>952449</v>
+        <v>951797</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9146578282655052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8946581527332095</v>
+        <v>0.8955716641670433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9324366740617525</v>
+        <v>0.9317991047554377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>907</v>
@@ -3632,19 +3632,19 @@
         <v>971703</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>953168</v>
+        <v>954266</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>986467</v>
+        <v>986222</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9317197031709704</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9139477823800395</v>
+        <v>0.9150007389478499</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9458764553914162</v>
+        <v>0.9456420583027342</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1779</v>
@@ -3653,19 +3653,19 @@
         <v>1905991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1880115</v>
+        <v>1880858</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1930961</v>
+        <v>1930752</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9232774124758129</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9107430224777446</v>
+        <v>0.9111029774525781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9353733458069095</v>
+        <v>0.9352720281878841</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>87174</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69013</v>
+        <v>69665</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107603</v>
+        <v>106670</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08534217173449481</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06756332593824757</v>
+        <v>0.06820089524456228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1053418472667902</v>
+        <v>0.1044283358329568</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -3703,19 +3703,19 @@
         <v>71210</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56446</v>
+        <v>56691</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>89745</v>
+        <v>88647</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06828029682902959</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05412354460858381</v>
+        <v>0.05435794169726581</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08605221761996058</v>
+        <v>0.08499926105215005</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>148</v>
@@ -3724,19 +3724,19 @@
         <v>158384</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>133414</v>
+        <v>133623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>184260</v>
+        <v>183517</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0767225875241872</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06462665419309056</v>
+        <v>0.06472797181211586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08925697752225534</v>
+        <v>0.08889702254742199</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>671381</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>653488</v>
+        <v>652533</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>688675</v>
+        <v>687988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8864175830437668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8627936964312716</v>
+        <v>0.8615327184053049</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9092514552332749</v>
+        <v>0.9083442541339238</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>686</v>
@@ -3849,19 +3849,19 @@
         <v>733060</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>716881</v>
+        <v>718375</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>744315</v>
+        <v>745644</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9338215465476353</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9132120076913954</v>
+        <v>0.9151144451394186</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9481589364941477</v>
+        <v>0.9498515742164936</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1299</v>
@@ -3870,19 +3870,19 @@
         <v>1404441</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1380333</v>
+        <v>1381844</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1424652</v>
+        <v>1424750</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9105437165711942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8949138738087946</v>
+        <v>0.8958931720284</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.92364731614759</v>
+        <v>0.9237104834431114</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>86028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68734</v>
+        <v>69421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103921</v>
+        <v>104876</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1135824169562332</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09074854476672511</v>
+        <v>0.09165574586607608</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1372063035687284</v>
+        <v>0.138467281594695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -3920,19 +3920,19 @@
         <v>51951</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40696</v>
+        <v>39367</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68130</v>
+        <v>66636</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06617845345236469</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05184106350585219</v>
+        <v>0.05014842578350567</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08678799230860453</v>
+        <v>0.08488555486058108</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>131</v>
@@ -3941,19 +3941,19 @@
         <v>137979</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>117768</v>
+        <v>117670</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>162087</v>
+        <v>160576</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08945628342880581</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07635268385241049</v>
+        <v>0.07628951655688909</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1050861261912055</v>
+        <v>0.1041068279716</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>877479</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>860429</v>
+        <v>860792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>889949</v>
+        <v>891695</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.938811626163977</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9205701011442072</v>
+        <v>0.9209582408662975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9521532174000783</v>
+        <v>0.9540211341086923</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>905</v>
@@ -4066,19 +4066,19 @@
         <v>985083</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>969068</v>
+        <v>968498</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>999240</v>
+        <v>999798</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9447727966394078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.929412399469174</v>
+        <v>0.9288657870546504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9583504546993843</v>
+        <v>0.9588853295327919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1780</v>
@@ -4087,19 +4087,19 @@
         <v>1862562</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1838519</v>
+        <v>1841886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1882082</v>
+        <v>1881534</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9419550031468502</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.929795478348641</v>
+        <v>0.9314984689818409</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9518264849292828</v>
+        <v>0.9515495957032581</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>57191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44721</v>
+        <v>42975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74241</v>
+        <v>73878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06118837383602306</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04784678259992173</v>
+        <v>0.04597886589130776</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07942989885579317</v>
+        <v>0.07904175913370247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -4137,19 +4137,19 @@
         <v>57584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43427</v>
+        <v>42869</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73599</v>
+        <v>74169</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0552272033605922</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04164954530061576</v>
+        <v>0.04111467046720813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07058760053082649</v>
+        <v>0.07113421294535069</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>107</v>
@@ -4158,19 +4158,19 @@
         <v>114775</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95255</v>
+        <v>95803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138818</v>
+        <v>135451</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0580449968531498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04817351507071674</v>
+        <v>0.04845040429674192</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07020452165135846</v>
+        <v>0.06850153101815923</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>3108065</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3070837</v>
+        <v>3071257</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3137899</v>
+        <v>3140501</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9175241394658851</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9065339769979773</v>
+        <v>0.9066579647860566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.926331129188978</v>
+        <v>0.9270995234120417</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3132</v>
@@ -4283,19 +4283,19 @@
         <v>3331043</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3304974</v>
+        <v>3302020</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3360753</v>
+        <v>3358193</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9405541055985142</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9331931897812016</v>
+        <v>0.9323592392575535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9489431041359669</v>
+        <v>0.94822016739912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6097</v>
@@ -4304,19 +4304,19 @@
         <v>6439108</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6390553</v>
+        <v>6392984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6481913</v>
+        <v>6479529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9292952572281248</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9222877870970893</v>
+        <v>0.9226385573346354</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9354727953366554</v>
+        <v>0.9351287688346068</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>279383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>249549</v>
+        <v>246947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>316611</v>
+        <v>316191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08247586053411494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07366887081102202</v>
+        <v>0.07290047658795822</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09346602300202253</v>
+        <v>0.09334203521394326</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>203</v>
@@ -4354,19 +4354,19 @@
         <v>210532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180822</v>
+        <v>183382</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>236601</v>
+        <v>239555</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05944589440148583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05105689586403313</v>
+        <v>0.05177983260088002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06680681021879847</v>
+        <v>0.06764076074244652</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>462</v>
@@ -4375,19 +4375,19 @@
         <v>489915</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>447110</v>
+        <v>449494</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>538470</v>
+        <v>536039</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07070474277187518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06452720466334272</v>
+        <v>0.06487123116539303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07771221290291075</v>
+        <v>0.07736144266536425</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>609046</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>587665</v>
+        <v>585661</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>625310</v>
+        <v>626280</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8817686956980523</v>
+        <v>0.8817686956980525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.850813111125991</v>
+        <v>0.8479115137924238</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9053147709945584</v>
+        <v>0.9067192942805935</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1132</v>
@@ -4740,19 +4740,19 @@
         <v>662384</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>646548</v>
+        <v>647709</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>675979</v>
+        <v>675986</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9040042457752013</v>
+        <v>0.9040042457752012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8823917720463665</v>
+        <v>0.8839769925634778</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.922558731288231</v>
+        <v>0.9225688192468839</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1782</v>
@@ -4761,19 +4761,19 @@
         <v>1271429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1244522</v>
+        <v>1246421</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1292285</v>
+        <v>1293561</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8932146092986937</v>
+        <v>0.8932146092986938</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8743111612837893</v>
+        <v>0.8756458504021424</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9078659426566876</v>
+        <v>0.9087624792835786</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>81664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65400</v>
+        <v>64430</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103045</v>
+        <v>105049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1182313043019476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09468522900544228</v>
+        <v>0.09328070571940682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1491868888740091</v>
+        <v>0.1520884862075768</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -4811,19 +4811,19 @@
         <v>70338</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56743</v>
+        <v>56736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86174</v>
+        <v>85013</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.0959957542247987</v>
+        <v>0.09599575422479868</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07744126871176897</v>
+        <v>0.07743118075311602</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1176082279536327</v>
+        <v>0.1160230074365221</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>186</v>
@@ -4832,19 +4832,19 @@
         <v>152002</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>131146</v>
+        <v>129870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>178909</v>
+        <v>177010</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1067853907013061</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09213405734331262</v>
+        <v>0.09123752071642159</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1256888387162111</v>
+        <v>0.1243541495978575</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>943395</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>922598</v>
+        <v>919858</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>964848</v>
+        <v>965120</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8993991115008015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8795717145331597</v>
+        <v>0.8769601648277509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9198517784319061</v>
+        <v>0.9201106411455509</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1392</v>
@@ -4957,19 +4957,19 @@
         <v>976620</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>958935</v>
+        <v>959099</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>991572</v>
+        <v>990302</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9120147759759066</v>
+        <v>0.9120147759759067</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.895499999028351</v>
+        <v>0.8956530396820979</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9259775631918663</v>
+        <v>0.9247912856242767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2266</v>
@@ -4978,19 +4978,19 @@
         <v>1920015</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1887813</v>
+        <v>1887936</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1945447</v>
+        <v>1945946</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9057721745186768</v>
+        <v>0.9057721745186766</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8905809593541522</v>
+        <v>0.8906386078793754</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9177695558317605</v>
+        <v>0.9180053073302079</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>105522</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84069</v>
+        <v>83797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>126319</v>
+        <v>129059</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1006008884991985</v>
+        <v>0.1006008884991984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08014822156809373</v>
+        <v>0.07988935885444903</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1204282854668404</v>
+        <v>0.1230398351722493</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>124</v>
@@ -5028,19 +5028,19 @@
         <v>94218</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79266</v>
+        <v>80536</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>111903</v>
+        <v>111739</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08798522402409337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07402243680813368</v>
+        <v>0.0752087143757231</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.104500000971649</v>
+        <v>0.1043469603179021</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>214</v>
@@ -5049,19 +5049,19 @@
         <v>199740</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>174308</v>
+        <v>173809</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>231942</v>
+        <v>231819</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09422782548132334</v>
+        <v>0.09422782548132336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08223044416823956</v>
+        <v>0.08199469266979209</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1094190406458479</v>
+        <v>0.1093613921206245</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>653413</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>624494</v>
+        <v>627387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>676533</v>
+        <v>676896</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8136404794743357</v>
+        <v>0.8136404794743356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7776298717946293</v>
+        <v>0.7812325157136193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8424305588533691</v>
+        <v>0.8428822188806492</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>894</v>
@@ -5174,19 +5174,19 @@
         <v>691819</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>671320</v>
+        <v>672670</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>709085</v>
+        <v>708711</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8517216931872084</v>
+        <v>0.8517216931872083</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8264848582167523</v>
+        <v>0.8281474315566438</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8729785989876266</v>
+        <v>0.8725189227149546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1446</v>
@@ -5195,19 +5195,19 @@
         <v>1345231</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1314676</v>
+        <v>1314146</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1373425</v>
+        <v>1376902</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8327893620234048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8138737550330825</v>
+        <v>0.8135453223511485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.850243058709919</v>
+        <v>0.8523959765418264</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>149660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126540</v>
+        <v>126177</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178579</v>
+        <v>175686</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1863595205256644</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1575694411466307</v>
+        <v>0.1571177811193507</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2223701282053706</v>
+        <v>0.2187674842863808</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -5245,19 +5245,19 @@
         <v>120440</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>103174</v>
+        <v>103548</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>140939</v>
+        <v>139589</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1482783068127916</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1270214010123732</v>
+        <v>0.1274810772850453</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1735151417832476</v>
+        <v>0.1718525684433561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>277</v>
@@ -5266,19 +5266,19 @@
         <v>270101</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>241907</v>
+        <v>238430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>300656</v>
+        <v>301186</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1672106379765951</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1497569412900809</v>
+        <v>0.1476040234581736</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1861262449669177</v>
+        <v>0.1864546776488511</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>873682</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>847067</v>
+        <v>847027</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>894329</v>
+        <v>894282</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8824515150783281</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8555697854246153</v>
+        <v>0.8555290633201065</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9033065193478813</v>
+        <v>0.9032580930368755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1382</v>
@@ -5391,19 +5391,19 @@
         <v>991860</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>973172</v>
+        <v>972758</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1010501</v>
+        <v>1008779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8863485926909042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.869648505195837</v>
+        <v>0.8692782702367625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9030062433421119</v>
+        <v>0.9014676033528776</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2282</v>
@@ -5412,19 +5412,19 @@
         <v>1865543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1834438</v>
+        <v>1834955</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1891795</v>
+        <v>1892502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8845192139369678</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8697712364685627</v>
+        <v>0.8700165343932532</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8969663268572355</v>
+        <v>0.8973015840547566</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>116380</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95733</v>
+        <v>95780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142995</v>
+        <v>143035</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1175484849216719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0966934806521183</v>
+        <v>0.0967419069631244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1444302145753847</v>
+        <v>0.1444709366798936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>180</v>
@@ -5462,19 +5462,19 @@
         <v>127181</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108540</v>
+        <v>110262</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145869</v>
+        <v>146283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.113651407309096</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09699375665788826</v>
+        <v>0.09853239664712232</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1303514948041627</v>
+        <v>0.1307217297632374</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>286</v>
@@ -5483,19 +5483,19 @@
         <v>243561</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>217309</v>
+        <v>216602</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>274666</v>
+        <v>274149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1154807860630322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1030336731427645</v>
+        <v>0.1026984159452433</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1302287635314371</v>
+        <v>0.1299834656067468</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>3079536</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3036005</v>
+        <v>3032182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3126070</v>
+        <v>3126050</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8717077149217343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8593856237352596</v>
+        <v>0.8583036144114378</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8848797962498405</v>
+        <v>0.8848742394802361</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4800</v>
@@ -5608,19 +5608,19 @@
         <v>3322683</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3288779</v>
+        <v>3287103</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3358657</v>
+        <v>3352564</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8896405523825281</v>
+        <v>0.8896405523825283</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8805629845986034</v>
+        <v>0.8801141115018345</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8992724755102113</v>
+        <v>0.8976410528258651</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7776</v>
@@ -5629,19 +5629,19 @@
         <v>6402219</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6347201</v>
+        <v>6344748</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6462045</v>
+        <v>6460782</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8809234717780878</v>
+        <v>0.8809234717780879</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8733532619272564</v>
+        <v>0.8730156327073653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8891553239784059</v>
+        <v>0.8889815300828143</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>453226</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>406692</v>
+        <v>406712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>496757</v>
+        <v>500580</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1282922850782659</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1151202037501601</v>
+        <v>0.1151257605197641</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1406143762647411</v>
+        <v>0.1416963855885623</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>563</v>
@@ -5679,19 +5679,19 @@
         <v>412177</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>376203</v>
+        <v>382296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>446081</v>
+        <v>447757</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1103594476174718</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1007275244897883</v>
+        <v>0.1023589471741349</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1194370154013965</v>
+        <v>0.1198858884981659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>963</v>
@@ -5700,19 +5700,19 @@
         <v>865403</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>805577</v>
+        <v>806840</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>920421</v>
+        <v>922874</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1190765282219121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1108446760215939</v>
+        <v>0.1110184699171856</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1266467380727437</v>
+        <v>0.1269843672926347</v>
       </c>
     </row>
     <row r="18">
